--- a/biology/Zoologie/Culicia/Culicia.xlsx
+++ b/biology/Zoologie/Culicia/Culicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culicia est un genre de coraux durs de la famille des Rhizangiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culicia est un genre de coraux durs de la famille des Rhizangiidae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Culicia a appartenu à la famille des  Astrangiidae, dès 1870. Puis, il fut rattaché à la famille  des  Rhizangiidae qui n'est plus reconnue aujourd’hui.  Culicia appartient donc bien aux Astrangiidae. Pendant très  longtemps, le genre Culicia n’a été connu que par des formes vivantes ou pliocènes. En 1961, Chevalier attribue au genre Culicia le Lithodendron parasitum des faluns mioècènes de Bretagne, d'Anjou-Touraine.
 </t>
@@ -594,7 +612,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Culicia comprend les espèces suivantes :
 </t>
@@ -625,7 +645,9 @@
           <t>Liste complémentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Culicia parasita Michelin, 1847 †</t>
         </is>
